--- a/docs/vcpu/EL2.xlsx
+++ b/docs/vcpu/EL2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidekazu Kato\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6CAD3E-6515-4A31-B992-EB85957F7DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0782A62-E703-4E8D-BD90-EA638A4C64C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="el2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>VPIDR_EL2</t>
   </si>
@@ -305,13 +305,17 @@
   </si>
   <si>
     <t>Description</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Reset</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1323,11 +1327,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1337,10 +1341,11 @@
     <col min="3" max="3" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1357,10 +1362,13 @@
         <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1376,9 +1384,10 @@
       <c r="E2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1394,9 +1403,10 @@
       <c r="E3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1412,9 +1422,10 @@
       <c r="E4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1428,9 +1439,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1444,9 +1456,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1460,9 +1473,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1476,9 +1490,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1494,9 +1509,10 @@
       <c r="E9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1510,9 +1526,10 @@
         <v>19</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1526,9 +1543,10 @@
         <v>21</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1542,9 +1560,10 @@
         <v>23</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1558,9 +1577,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1576,9 +1596,10 @@
       <c r="E14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1594,9 +1615,10 @@
       <c r="E15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1610,9 +1632,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1626,9 +1649,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1642,9 +1666,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1658,9 +1683,10 @@
         <v>37</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1676,9 +1702,10 @@
       <c r="E20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -1692,9 +1719,10 @@
         <v>41</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1708,9 +1736,10 @@
         <v>43</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1726,9 +1755,10 @@
       <c r="E23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -1744,9 +1774,10 @@
       <c r="E24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -1762,9 +1793,10 @@
       <c r="E25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -1778,9 +1810,10 @@
         <v>51</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -1794,9 +1827,10 @@
         <v>53</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
@@ -1810,9 +1844,10 @@
         <v>55</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
@@ -1826,9 +1861,10 @@
         <v>57</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -1842,9 +1878,10 @@
         <v>59</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
@@ -1858,9 +1895,10 @@
         <v>61</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
@@ -1874,9 +1912,10 @@
         <v>63</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
@@ -1890,9 +1929,10 @@
         <v>65</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
@@ -1906,9 +1946,10 @@
         <v>67</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
@@ -1922,9 +1963,10 @@
         <v>69</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
@@ -1938,9 +1980,10 @@
         <v>71</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
@@ -1954,9 +1997,10 @@
         <v>73</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
@@ -1970,9 +2014,10 @@
         <v>75</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
@@ -1988,9 +2033,10 @@
       <c r="E39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
@@ -2004,9 +2050,10 @@
         <v>79</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
@@ -2020,9 +2067,10 @@
         <v>81</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
@@ -2036,9 +2084,10 @@
         <v>83</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" s="4"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
@@ -2052,10 +2101,12 @@
         <v>85</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/vcpu/EL2.xlsx
+++ b/docs/vcpu/EL2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidekazu Kato\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0782A62-E703-4E8D-BD90-EA638A4C64C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254DD064-B980-4D46-844E-3EB8903AA11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4330" yWindow="950" windowWidth="16190" windowHeight="8830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="el2" sheetId="1" r:id="rId1"/>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1339,9 +1339,9 @@
     <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.75" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1422,7 +1422,9 @@
       <c r="E4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1439,7 +1441,9 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1456,7 +1460,9 @@
         <v>11</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1473,7 +1479,9 @@
         <v>13</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1490,7 +1498,9 @@
         <v>15</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
